--- a/user-data/gdp-pc-usd-current/gdp-pc-usd-current.xlsx
+++ b/user-data/gdp-pc-usd-current/gdp-pc-usd-current.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1742,42 +1739,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
@@ -1793,11 +1790,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/gdp-pc-usd-current/gdp-pc-usd-current.xlsx
+++ b/user-data/gdp-pc-usd-current/gdp-pc-usd-current.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1363,7 +1363,7 @@
     <t>Total GDP divided by the population of each country in each year</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/gdp-pc-usd-current/gdp-pc-usd-current.xlsx
+++ b/user-data/gdp-pc-usd-current/gdp-pc-usd-current.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1369,7 +1369,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1792,6 +1795,11 @@
         <v>453</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/gdp-pc-usd-current/gdp-pc-usd-current.xlsx
+++ b/user-data/gdp-pc-usd-current/gdp-pc-usd-current.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1378,7 +1378,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7867,7 +7867,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>645.7656817</v>
+        <v>298.9503625</v>
       </c>
     </row>
     <row r="437">
@@ -7881,7 +7881,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>642.2152213</v>
+        <v>319.0848624</v>
       </c>
     </row>
     <row r="438">
@@ -7895,7 +7895,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>688.8559652</v>
+        <v>337.0772586</v>
       </c>
     </row>
     <row r="439">
@@ -7909,7 +7909,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>812.3976351</v>
+        <v>360.1448905</v>
       </c>
     </row>
     <row r="440">
@@ -7923,7 +7923,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>902.9864166</v>
+        <v>405.9378328</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>982.2314265</v>
+        <v>471.1625029</v>
       </c>
     </row>
     <row r="442">
@@ -7951,7 +7951,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>1007.839837</v>
+        <v>536.6577307</v>
       </c>
     </row>
     <row r="443">
@@ -7965,7 +7965,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>1133.409489</v>
+        <v>628.4268517</v>
       </c>
     </row>
     <row r="444">
@@ -7979,7 +7979,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>1326.661946</v>
+        <v>742.5713353</v>
       </c>
     </row>
     <row r="445">
@@ -7993,7 +7993,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>1305.147464</v>
+        <v>735.4192635</v>
       </c>
     </row>
     <row r="446">
@@ -8007,7 +8007,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>1311.326565</v>
+        <v>782.6188886</v>
       </c>
     </row>
     <row r="447">
@@ -8021,7 +8021,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>1309.008626</v>
+        <v>878.3830178</v>
       </c>
     </row>
     <row r="448">
@@ -8035,7 +8035,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>1365.873574</v>
+        <v>945.4946464</v>
       </c>
     </row>
     <row r="449">
@@ -8049,7 +8049,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>1528.937539</v>
+        <v>1006.839744</v>
       </c>
     </row>
     <row r="450">
@@ -8063,7 +8063,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>298.9503625</v>
+        <v>583.0948592</v>
       </c>
     </row>
     <row r="451">
@@ -8077,7 +8077,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>319.0848624</v>
+        <v>589.1651391</v>
       </c>
     </row>
     <row r="452">
@@ -8091,7 +8091,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>337.0772586</v>
+        <v>648.2987607</v>
       </c>
     </row>
     <row r="453">
@@ -8105,7 +8105,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>360.1448905</v>
+        <v>790.8912173</v>
       </c>
     </row>
     <row r="454">
@@ -8119,7 +8119,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>405.9378328</v>
+        <v>892.5257391</v>
       </c>
     </row>
     <row r="455">
@@ -8133,7 +8133,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>471.1625029</v>
+        <v>914.5496074</v>
       </c>
     </row>
     <row r="456">
@@ -8147,7 +8147,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>536.6577307</v>
+        <v>964.5995681</v>
       </c>
     </row>
     <row r="457">
@@ -8161,7 +8161,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>628.4268517</v>
+        <v>1069.856935</v>
       </c>
     </row>
     <row r="458">
@@ -8175,7 +8175,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>742.5713353</v>
+        <v>1190.213089</v>
       </c>
     </row>
     <row r="459">
@@ -8189,7 +8189,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>735.4192635</v>
+        <v>1163.012663</v>
       </c>
     </row>
     <row r="460">
@@ -8203,7 +8203,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>782.6188886</v>
+        <v>1145.368992</v>
       </c>
     </row>
     <row r="461">
@@ -8217,7 +8217,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>878.3830178</v>
+        <v>1256.710574</v>
       </c>
     </row>
     <row r="462">
@@ -8231,7 +8231,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>945.4946464</v>
+        <v>1219.931075</v>
       </c>
     </row>
     <row r="463">
@@ -8245,7 +8245,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>1006.839744</v>
+        <v>1328.640205</v>
       </c>
     </row>
     <row r="464">
@@ -8259,7 +8259,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>583.0948592</v>
+        <v>24017.13374</v>
       </c>
     </row>
     <row r="465">
@@ -8273,7 +8273,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>589.1651391</v>
+        <v>23582.8569</v>
       </c>
     </row>
     <row r="466">
@@ -8287,7 +8287,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>648.2987607</v>
+        <v>24009.94835</v>
       </c>
     </row>
     <row r="467">
@@ -8301,7 +8301,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>790.8912173</v>
+        <v>28033.84266</v>
       </c>
     </row>
     <row r="468">
@@ -8315,7 +8315,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>892.5257391</v>
+        <v>31879.98125</v>
       </c>
     </row>
     <row r="469">
@@ -8329,7 +8329,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>914.5496074</v>
+        <v>35899.97524</v>
       </c>
     </row>
     <row r="470">
@@ -8343,7 +8343,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>964.5995681</v>
+        <v>40220.43871</v>
       </c>
     </row>
     <row r="471">
@@ -8357,7 +8357,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>1069.856935</v>
+        <v>44393.18889</v>
       </c>
     </row>
     <row r="472">
@@ -8371,7 +8371,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>1190.213089</v>
+        <v>46321.67825</v>
       </c>
     </row>
     <row r="473">
@@ -8385,7 +8385,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>1163.012663</v>
+        <v>40739.16789</v>
       </c>
     </row>
     <row r="474">
@@ -8399,7 +8399,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>1145.368992</v>
+        <v>47345.59704</v>
       </c>
     </row>
     <row r="475">
@@ -8413,7 +8413,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>1256.710574</v>
+        <v>51830.39929</v>
       </c>
     </row>
     <row r="476">
@@ -8427,7 +8427,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>1219.931075</v>
+        <v>52367.60262</v>
       </c>
     </row>
     <row r="477">
@@ -8441,7 +8441,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>1328.640205</v>
+        <v>52050.2923</v>
       </c>
     </row>
     <row r="478">
@@ -8455,7 +8455,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>24017.13374</v>
+        <v>1218.796031</v>
       </c>
     </row>
     <row r="479">
@@ -8469,7 +8469,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>23582.8569</v>
+        <v>1248.911424</v>
       </c>
     </row>
     <row r="480">
@@ -8483,7 +8483,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>24009.94835</v>
+        <v>1352.473771</v>
       </c>
     </row>
     <row r="481">
@@ -8497,7 +8497,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>28033.84266</v>
+        <v>1743.191153</v>
       </c>
     </row>
     <row r="482">
@@ -8511,7 +8511,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>31879.98125</v>
+        <v>1951.780821</v>
       </c>
     </row>
     <row r="483">
@@ -8525,7 +8525,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>35899.97524</v>
+        <v>2030.658982</v>
       </c>
     </row>
     <row r="484">
@@ -8539,7 +8539,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>40220.43871</v>
+        <v>2298.814821</v>
       </c>
     </row>
     <row r="485">
@@ -8553,7 +8553,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>44393.18889</v>
+        <v>3129.818791</v>
       </c>
     </row>
     <row r="486">
@@ -8567,7 +8567,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>46321.67825</v>
+        <v>3692.002674</v>
       </c>
     </row>
     <row r="487">
@@ -8581,7 +8581,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>40739.16789</v>
+        <v>3524.330353</v>
       </c>
     </row>
     <row r="488">
@@ -8595,7 +8595,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>47345.59704</v>
+        <v>3413.263371</v>
       </c>
     </row>
     <row r="489">
@@ -8609,7 +8609,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>51830.39929</v>
+        <v>3801.449765</v>
       </c>
     </row>
     <row r="490">
@@ -8623,7 +8623,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>52367.60262</v>
+        <v>3554.411134</v>
       </c>
     </row>
     <row r="491">
@@ -8637,7 +8637,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>52050.2923</v>
+        <v>3767.115364</v>
       </c>
     </row>
     <row r="492">
@@ -8651,7 +8651,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>1218.796031</v>
+        <v>251.3526401</v>
       </c>
     </row>
     <row r="493">
@@ -8665,7 +8665,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>1248.911424</v>
+        <v>251.571807</v>
       </c>
     </row>
     <row r="494">
@@ -8679,7 +8679,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>1352.473771</v>
+        <v>263.1597031</v>
       </c>
     </row>
     <row r="495">
@@ -8693,7 +8693,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>1743.191153</v>
+        <v>297.6143874</v>
       </c>
     </row>
     <row r="496">
@@ -8707,7 +8707,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>1951.780821</v>
+        <v>326.1973133</v>
       </c>
     </row>
     <row r="497">
@@ -8721,7 +8721,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>2030.658982</v>
+        <v>340.9078668</v>
       </c>
     </row>
     <row r="498">
@@ -8735,7 +8735,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>2298.814821</v>
+        <v>365.4970834</v>
       </c>
     </row>
     <row r="499">
@@ -8749,7 +8749,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>3129.818791</v>
+        <v>413.4814387</v>
       </c>
     </row>
     <row r="500">
@@ -8763,7 +8763,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>3692.002674</v>
+        <v>474.389479</v>
       </c>
     </row>
     <row r="501">
@@ -8777,7 +8777,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>3524.330353</v>
+        <v>464.5132312</v>
       </c>
     </row>
     <row r="502">
@@ -8791,7 +8791,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>3413.263371</v>
+        <v>456.5634086</v>
       </c>
     </row>
     <row r="503">
@@ -8805,7 +8805,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>3801.449765</v>
+        <v>494.9260803</v>
       </c>
     </row>
     <row r="504">
@@ -8819,7 +8819,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>3554.411134</v>
+        <v>479.4709838</v>
       </c>
     </row>
     <row r="505">
@@ -8833,7 +8833,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>3767.115364</v>
+        <v>333.1968806</v>
       </c>
     </row>
     <row r="506">
@@ -8846,9 +8846,7 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>251.3526401</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8860,9 +8858,7 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>251.571807</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8874,9 +8870,7 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>263.1597031</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -8888,9 +8882,7 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>297.6143874</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -8902,9 +8894,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>326.1973133</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8916,9 +8906,7 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>340.9078668</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -8930,9 +8918,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>365.4970834</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -8944,9 +8930,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>413.4814387</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -8958,9 +8942,7 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>474.389479</v>
-      </c>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -8972,9 +8954,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>464.5132312</v>
-      </c>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -8986,9 +8966,7 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>456.5634086</v>
-      </c>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -9000,9 +8978,7 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>494.9260803</v>
-      </c>
+      <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -9014,9 +8990,7 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>479.4709838</v>
-      </c>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -9028,9 +9002,7 @@
       <c r="C519" t="n">
         <v>2013</v>
       </c>
-      <c r="D519" t="n">
-        <v>333.1968806</v>
-      </c>
+      <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -9042,7 +9014,9 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
+      <c r="D520" t="n">
+        <v>166.8513453</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -9054,7 +9028,9 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
+      <c r="D521" t="n">
+        <v>198.2791131</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -9066,7 +9042,9 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>221.8337338</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -9078,7 +9056,9 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>293.9101789</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -9090,7 +9070,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>456.7944313</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -9102,7 +9084,9 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>663.7096973</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -9114,7 +9098,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>716.638996</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -9126,7 +9112,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>807.7815699</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -9138,7 +9126,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>938.4718288</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -9150,7 +9140,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>813.7560302</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -9162,7 +9154,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>909.2999069</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -9174,7 +9168,9 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>1006.319771</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9186,7 +9182,9 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
+      <c r="D532" t="n">
+        <v>1035.257946</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -9198,7 +9196,9 @@
       <c r="C533" t="n">
         <v>2013</v>
       </c>
-      <c r="D533"/>
+      <c r="D533" t="n">
+        <v>1053.662501</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -9211,7 +9211,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>166.8513453</v>
+        <v>5133.077311</v>
       </c>
     </row>
     <row r="535">
@@ -9225,7 +9225,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>198.2791131</v>
+        <v>4625.336377</v>
       </c>
     </row>
     <row r="536">
@@ -9239,7 +9239,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>221.8337338</v>
+        <v>4487.150018</v>
       </c>
     </row>
     <row r="537">
@@ -9253,7 +9253,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>293.9101789</v>
+        <v>4866.33225</v>
       </c>
     </row>
     <row r="538">
@@ -9267,7 +9267,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>456.7944313</v>
+        <v>6246.814357</v>
       </c>
     </row>
     <row r="539">
@@ -9281,7 +9281,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>663.7096973</v>
+        <v>7589.78486</v>
       </c>
     </row>
     <row r="540">
@@ -9295,7 +9295,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>716.638996</v>
+        <v>9391.361038</v>
       </c>
     </row>
     <row r="541">
@@ -9309,7 +9309,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>807.7815699</v>
+        <v>10378.61425</v>
       </c>
     </row>
     <row r="542">
@@ -9323,7 +9323,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>938.4718288</v>
+        <v>10694.43481</v>
       </c>
     </row>
     <row r="543">
@@ -9337,7 +9337,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>813.7560302</v>
+        <v>10122.57199</v>
       </c>
     </row>
     <row r="544">
@@ -9351,7 +9351,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>909.2999069</v>
+        <v>12710.80698</v>
       </c>
     </row>
     <row r="545">
@@ -9365,7 +9365,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>1006.319771</v>
+        <v>14501.58821</v>
       </c>
     </row>
     <row r="546">
@@ -9379,7 +9379,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>1035.257946</v>
+        <v>15230.62313</v>
       </c>
     </row>
     <row r="547">
@@ -9393,7 +9393,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>1053.662501</v>
+        <v>15721.03238</v>
       </c>
     </row>
     <row r="548">
@@ -9407,7 +9407,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>5133.077311</v>
+        <v>950.3858963</v>
       </c>
     </row>
     <row r="549">
@@ -9421,7 +9421,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>4625.336377</v>
+        <v>1037.858238</v>
       </c>
     </row>
     <row r="550">
@@ -9435,7 +9435,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>4487.150018</v>
+        <v>1132.458607</v>
       </c>
     </row>
     <row r="551">
@@ -9449,7 +9449,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>4866.33225</v>
+        <v>1272.896616</v>
       </c>
     </row>
     <row r="552">
@@ -9463,7 +9463,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>6246.814357</v>
+        <v>1489.111355</v>
       </c>
     </row>
     <row r="553">
@@ -9477,7 +9477,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>7589.78486</v>
+        <v>1733.501059</v>
       </c>
     </row>
     <row r="554">
@@ -9491,7 +9491,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>9391.361038</v>
+        <v>2067.092798</v>
       </c>
     </row>
     <row r="555">
@@ -9505,7 +9505,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>10378.61425</v>
+        <v>2648.182505</v>
       </c>
     </row>
     <row r="556">
@@ -9519,7 +9519,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>10694.43481</v>
+        <v>3412.209217</v>
       </c>
     </row>
     <row r="557">
@@ -9533,7 +9533,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>10122.57199</v>
+        <v>3748.328651</v>
       </c>
     </row>
     <row r="558">
@@ -9547,7 +9547,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>12710.80698</v>
+        <v>4432.965415</v>
       </c>
     </row>
     <row r="559">
@@ -9561,7 +9561,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>14501.58821</v>
+        <v>5445.90181</v>
       </c>
     </row>
     <row r="560">
@@ -9575,7 +9575,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>15230.62313</v>
+        <v>6093.159448</v>
       </c>
     </row>
     <row r="561">
@@ -9589,7 +9589,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>15721.03238</v>
+        <v>6807.231578</v>
       </c>
     </row>
     <row r="562">
@@ -9603,7 +9603,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>950.3858963</v>
+        <v>2503.549492</v>
       </c>
     </row>
     <row r="563">
@@ -9617,7 +9617,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>1037.858238</v>
+        <v>2421.272646</v>
       </c>
     </row>
     <row r="564">
@@ -9631,7 +9631,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>1132.458607</v>
+        <v>2376.083803</v>
       </c>
     </row>
     <row r="565">
@@ -9645,7 +9645,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>1272.896616</v>
+        <v>2261.283608</v>
       </c>
     </row>
     <row r="566">
@@ -9659,7 +9659,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>1489.111355</v>
+        <v>2751.153056</v>
       </c>
     </row>
     <row r="567">
@@ -9673,7 +9673,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>1733.501059</v>
+        <v>3404.036483</v>
       </c>
     </row>
     <row r="568">
@@ -9687,7 +9687,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>2067.092798</v>
+        <v>3717.949508</v>
       </c>
     </row>
     <row r="569">
@@ -9701,7 +9701,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>2648.182505</v>
+        <v>4674.326419</v>
       </c>
     </row>
     <row r="570">
@@ -9715,7 +9715,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>3412.209217</v>
+        <v>5403.844707</v>
       </c>
     </row>
     <row r="571">
@@ -9729,7 +9729,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>3748.328651</v>
+        <v>5108.884632</v>
       </c>
     </row>
     <row r="572">
@@ -9743,7 +9743,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>4432.965415</v>
+        <v>6179.378797</v>
       </c>
     </row>
     <row r="573">
@@ -9757,7 +9757,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>5445.90181</v>
+        <v>7115.730582</v>
       </c>
     </row>
     <row r="574">
@@ -9771,7 +9771,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>6093.159448</v>
+        <v>7756.09358</v>
       </c>
     </row>
     <row r="575">
@@ -9785,7 +9785,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>6807.231578</v>
+        <v>7822.620224</v>
       </c>
     </row>
     <row r="576">
@@ -9799,7 +9799,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>2503.549492</v>
+        <v>382.1603212</v>
       </c>
     </row>
     <row r="577">
@@ -9813,7 +9813,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>2421.272646</v>
+        <v>406.0951561</v>
       </c>
     </row>
     <row r="578">
@@ -9827,7 +9827,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>2376.083803</v>
+        <v>443.7504421</v>
       </c>
     </row>
     <row r="579">
@@ -9841,7 +9841,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>2261.283608</v>
+        <v>556.6473455</v>
       </c>
     </row>
     <row r="580">
@@ -9855,7 +9855,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>2751.153056</v>
+        <v>628.8862807</v>
       </c>
     </row>
     <row r="581">
@@ -9869,7 +9869,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>3404.036483</v>
+        <v>633.1812715</v>
       </c>
     </row>
     <row r="582">
@@ -9883,7 +9883,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>3717.949508</v>
+        <v>658.7100831</v>
       </c>
     </row>
     <row r="583">
@@ -9897,7 +9897,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>4674.326419</v>
+        <v>730.879264</v>
       </c>
     </row>
     <row r="584">
@@ -9911,7 +9911,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>5403.844707</v>
+        <v>796.988807</v>
       </c>
     </row>
     <row r="585">
@@ -9925,7 +9925,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>5108.884632</v>
+        <v>772.8425217</v>
       </c>
     </row>
     <row r="586">
@@ -9939,7 +9939,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>6179.378797</v>
+        <v>756.8106118</v>
       </c>
     </row>
     <row r="587">
@@ -9953,7 +9953,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>7115.730582</v>
+        <v>808.3572439</v>
       </c>
     </row>
     <row r="588">
@@ -9967,7 +9967,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>7756.09358</v>
+        <v>767.2114252</v>
       </c>
     </row>
     <row r="589">
@@ -9981,7 +9981,7 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>7822.620224</v>
+        <v>814.9571489</v>
       </c>
     </row>
     <row r="590">
@@ -9995,7 +9995,7 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>382.1603212</v>
+        <v>1029.974585</v>
       </c>
     </row>
     <row r="591">
@@ -10009,7 +10009,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>406.0951561</v>
+        <v>871.6709433</v>
       </c>
     </row>
     <row r="592">
@@ -10023,7 +10023,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>443.7504421</v>
+        <v>919.6870143</v>
       </c>
     </row>
     <row r="593">
@@ -10037,7 +10037,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>556.6473455</v>
+        <v>1039.379799</v>
       </c>
     </row>
     <row r="594">
@@ -10051,7 +10051,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>628.8862807</v>
+        <v>1347.870907</v>
       </c>
     </row>
     <row r="595">
@@ -10065,7 +10065,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>633.1812715</v>
+        <v>1718.100816</v>
       </c>
     </row>
     <row r="596">
@@ -10079,7 +10079,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>658.7100831</v>
+        <v>2120.097846</v>
       </c>
     </row>
     <row r="597">
@@ -10093,7 +10093,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>730.879264</v>
+        <v>2233.308252</v>
       </c>
     </row>
     <row r="598">
@@ -10107,7 +10107,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>796.988807</v>
+        <v>3059.226535</v>
       </c>
     </row>
     <row r="599">
@@ -10121,7 +10121,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>772.8425217</v>
+        <v>2401.298155</v>
       </c>
     </row>
     <row r="600">
@@ -10135,7 +10135,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>756.8106118</v>
+        <v>2920.406708</v>
       </c>
     </row>
     <row r="601">
@@ -10149,7 +10149,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>808.3572439</v>
+        <v>3414.054709</v>
       </c>
     </row>
     <row r="602">
@@ -10163,7 +10163,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>767.2114252</v>
+        <v>3153.739525</v>
       </c>
     </row>
     <row r="603">
@@ -10177,7 +10177,7 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>814.9571489</v>
+        <v>3167.045322</v>
       </c>
     </row>
     <row r="604">
@@ -10191,7 +10191,7 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>1029.974585</v>
+        <v>4058.044534</v>
       </c>
     </row>
     <row r="605">
@@ -10205,7 +10205,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>871.6709433</v>
+        <v>4087.118971</v>
       </c>
     </row>
     <row r="606">
@@ -10219,7 +10219,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>919.6870143</v>
+        <v>4114.566905</v>
       </c>
     </row>
     <row r="607">
@@ -10233,7 +10233,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>1039.379799</v>
+        <v>4199.694812</v>
       </c>
     </row>
     <row r="608">
@@ -10247,7 +10247,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>1347.870907</v>
+        <v>4379.391063</v>
       </c>
     </row>
     <row r="609">
@@ -10261,7 +10261,7 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>1718.100816</v>
+        <v>4621.364127</v>
       </c>
     </row>
     <row r="610">
@@ -10275,7 +10275,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>2120.097846</v>
+        <v>5128.400753</v>
       </c>
     </row>
     <row r="611">
@@ -10289,7 +10289,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>2233.308252</v>
+        <v>5897.527844</v>
       </c>
     </row>
     <row r="612">
@@ -10303,7 +10303,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>3059.226535</v>
+        <v>6581.308114</v>
       </c>
     </row>
     <row r="613">
@@ -10317,7 +10317,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>2401.298155</v>
+        <v>6385.56513</v>
       </c>
     </row>
     <row r="614">
@@ -10331,7 +10331,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>2920.406708</v>
+        <v>7773.185487</v>
       </c>
     </row>
     <row r="615">
@@ -10345,7 +10345,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>3414.054709</v>
+        <v>8704.111887</v>
       </c>
     </row>
     <row r="616">
@@ -10359,7 +10359,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>3153.739525</v>
+        <v>9442.66454</v>
       </c>
     </row>
     <row r="617">
@@ -10373,7 +10373,7 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>3167.045322</v>
+        <v>10184.60567</v>
       </c>
     </row>
     <row r="618">
@@ -10387,7 +10387,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>4058.044534</v>
+        <v>645.7656817</v>
       </c>
     </row>
     <row r="619">
@@ -10401,7 +10401,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>4087.118971</v>
+        <v>642.2152213</v>
       </c>
     </row>
     <row r="620">
@@ -10415,7 +10415,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>4114.566905</v>
+        <v>688.8559652</v>
       </c>
     </row>
     <row r="621">
@@ -10429,7 +10429,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>4199.694812</v>
+        <v>812.3976351</v>
       </c>
     </row>
     <row r="622">
@@ -10443,7 +10443,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>4379.391063</v>
+        <v>902.9864166</v>
       </c>
     </row>
     <row r="623">
@@ -10457,7 +10457,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>4621.364127</v>
+        <v>982.2314265</v>
       </c>
     </row>
     <row r="624">
@@ -10471,7 +10471,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>5128.400753</v>
+        <v>1007.839837</v>
       </c>
     </row>
     <row r="625">
@@ -10485,7 +10485,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>5897.527844</v>
+        <v>1133.409489</v>
       </c>
     </row>
     <row r="626">
@@ -10499,7 +10499,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>6581.308114</v>
+        <v>1326.661946</v>
       </c>
     </row>
     <row r="627">
@@ -10513,7 +10513,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>6385.56513</v>
+        <v>1305.147464</v>
       </c>
     </row>
     <row r="628">
@@ -10527,7 +10527,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>7773.185487</v>
+        <v>1311.326565</v>
       </c>
     </row>
     <row r="629">
@@ -10541,7 +10541,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>8704.111887</v>
+        <v>1309.008626</v>
       </c>
     </row>
     <row r="630">
@@ -10555,7 +10555,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>9442.66454</v>
+        <v>1365.873574</v>
       </c>
     </row>
     <row r="631">
@@ -10569,7 +10569,7 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>10184.60567</v>
+        <v>1528.937539</v>
       </c>
     </row>
     <row r="632">
@@ -40577,7 +40577,7 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>635.7089635</v>
+        <v>26319.13455</v>
       </c>
     </row>
     <row r="2803">
@@ -40591,7 +40591,7 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>780.7380243</v>
+        <v>25879.71013</v>
       </c>
     </row>
     <row r="2804">
@@ -40605,7 +40605,7 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>879.4750486</v>
+        <v>28128.45758</v>
       </c>
     </row>
     <row r="2805">
@@ -40619,7 +40619,7 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>1048.522488</v>
+        <v>32524.37228</v>
       </c>
     </row>
     <row r="2806">
@@ -40633,7 +40633,7 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>1367.352433</v>
+        <v>38341.06225</v>
       </c>
     </row>
     <row r="2807">
@@ -40647,7 +40647,7 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>1828.717626</v>
+        <v>39899.86558</v>
       </c>
     </row>
     <row r="2808">
@@ -40661,7 +40661,7 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>2308.296509</v>
+        <v>42401.55854</v>
       </c>
     </row>
     <row r="2809">
@@ -40675,7 +40675,7 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>3074.650581</v>
+        <v>48269.42453</v>
       </c>
     </row>
     <row r="2810">
@@ -40689,7 +40689,7 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>3891.201992</v>
+        <v>45140.52172</v>
       </c>
     </row>
     <row r="2811">
@@ -40703,7 +40703,7 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>2540.534555</v>
+        <v>37092.78028</v>
       </c>
     </row>
     <row r="2812">
@@ -40717,7 +40717,7 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>2964.855561</v>
+        <v>38396.36085</v>
       </c>
     </row>
     <row r="2813">
@@ -40731,7 +40731,7 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>3566.263584</v>
+        <v>40942.84382</v>
       </c>
     </row>
     <row r="2814">
@@ -40745,7 +40745,7 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>3882.149351</v>
+        <v>40976.08681</v>
       </c>
     </row>
     <row r="2815">
@@ -40759,7 +40759,7 @@
         <v>2013</v>
       </c>
       <c r="D2815" t="n">
-        <v>3890.999261</v>
+        <v>41811.5738</v>
       </c>
     </row>
     <row r="2816">
@@ -40773,7 +40773,7 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>26319.13455</v>
+        <v>635.7089635</v>
       </c>
     </row>
     <row r="2817">
@@ -40787,7 +40787,7 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>25879.71013</v>
+        <v>780.7380243</v>
       </c>
     </row>
     <row r="2818">
@@ -40801,7 +40801,7 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>28128.45758</v>
+        <v>879.4750486</v>
       </c>
     </row>
     <row r="2819">
@@ -40815,7 +40815,7 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>32524.37228</v>
+        <v>1048.522488</v>
       </c>
     </row>
     <row r="2820">
@@ -40829,7 +40829,7 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>38341.06225</v>
+        <v>1367.352433</v>
       </c>
     </row>
     <row r="2821">
@@ -40843,7 +40843,7 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>39899.86558</v>
+        <v>1828.717626</v>
       </c>
     </row>
     <row r="2822">
@@ -40857,7 +40857,7 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>42401.55854</v>
+        <v>2308.296509</v>
       </c>
     </row>
     <row r="2823">
@@ -40871,7 +40871,7 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>48269.42453</v>
+        <v>3074.650581</v>
       </c>
     </row>
     <row r="2824">
@@ -40885,7 +40885,7 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>45140.52172</v>
+        <v>3891.201992</v>
       </c>
     </row>
     <row r="2825">
@@ -40899,7 +40899,7 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>37092.78028</v>
+        <v>2540.534555</v>
       </c>
     </row>
     <row r="2826">
@@ -40913,7 +40913,7 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>38396.36085</v>
+        <v>2964.855561</v>
       </c>
     </row>
     <row r="2827">
@@ -40927,7 +40927,7 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>40942.84382</v>
+        <v>3566.263584</v>
       </c>
     </row>
     <row r="2828">
@@ -40941,7 +40941,7 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>40976.08681</v>
+        <v>3882.149351</v>
       </c>
     </row>
     <row r="2829">
@@ -40955,7 +40955,7 @@
         <v>2013</v>
       </c>
       <c r="D2829" t="n">
-        <v>41811.5738</v>
+        <v>3890.999261</v>
       </c>
     </row>
     <row r="2830">
@@ -44464,46 +44464,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>645.7656817</v>
+        <v>298.9503625</v>
       </c>
       <c r="D33" t="n">
-        <v>642.2152213</v>
+        <v>319.0848624</v>
       </c>
       <c r="E33" t="n">
-        <v>688.8559652</v>
+        <v>337.0772586</v>
       </c>
       <c r="F33" t="n">
-        <v>812.3976351</v>
+        <v>360.1448905</v>
       </c>
       <c r="G33" t="n">
-        <v>902.9864166</v>
+        <v>405.9378328</v>
       </c>
       <c r="H33" t="n">
-        <v>982.2314265</v>
+        <v>471.1625029</v>
       </c>
       <c r="I33" t="n">
-        <v>1007.839837</v>
+        <v>536.6577307</v>
       </c>
       <c r="J33" t="n">
-        <v>1133.409489</v>
+        <v>628.4268517</v>
       </c>
       <c r="K33" t="n">
-        <v>1326.661946</v>
+        <v>742.5713353</v>
       </c>
       <c r="L33" t="n">
-        <v>1305.147464</v>
+        <v>735.4192635</v>
       </c>
       <c r="M33" t="n">
-        <v>1311.326565</v>
+        <v>782.6188886</v>
       </c>
       <c r="N33" t="n">
-        <v>1309.008626</v>
+        <v>878.3830178</v>
       </c>
       <c r="O33" t="n">
-        <v>1365.873574</v>
+        <v>945.4946464</v>
       </c>
       <c r="P33" t="n">
-        <v>1528.937539</v>
+        <v>1006.839744</v>
       </c>
     </row>
     <row r="34">
@@ -44514,46 +44514,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>298.9503625</v>
+        <v>583.0948592</v>
       </c>
       <c r="D34" t="n">
-        <v>319.0848624</v>
+        <v>589.1651391</v>
       </c>
       <c r="E34" t="n">
-        <v>337.0772586</v>
+        <v>648.2987607</v>
       </c>
       <c r="F34" t="n">
-        <v>360.1448905</v>
+        <v>790.8912173</v>
       </c>
       <c r="G34" t="n">
-        <v>405.9378328</v>
+        <v>892.5257391</v>
       </c>
       <c r="H34" t="n">
-        <v>471.1625029</v>
+        <v>914.5496074</v>
       </c>
       <c r="I34" t="n">
-        <v>536.6577307</v>
+        <v>964.5995681</v>
       </c>
       <c r="J34" t="n">
-        <v>628.4268517</v>
+        <v>1069.856935</v>
       </c>
       <c r="K34" t="n">
-        <v>742.5713353</v>
+        <v>1190.213089</v>
       </c>
       <c r="L34" t="n">
-        <v>735.4192635</v>
+        <v>1163.012663</v>
       </c>
       <c r="M34" t="n">
-        <v>782.6188886</v>
+        <v>1145.368992</v>
       </c>
       <c r="N34" t="n">
-        <v>878.3830178</v>
+        <v>1256.710574</v>
       </c>
       <c r="O34" t="n">
-        <v>945.4946464</v>
+        <v>1219.931075</v>
       </c>
       <c r="P34" t="n">
-        <v>1006.839744</v>
+        <v>1328.640205</v>
       </c>
     </row>
     <row r="35">
@@ -44564,46 +44564,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>583.0948592</v>
+        <v>24017.13374</v>
       </c>
       <c r="D35" t="n">
-        <v>589.1651391</v>
+        <v>23582.8569</v>
       </c>
       <c r="E35" t="n">
-        <v>648.2987607</v>
+        <v>24009.94835</v>
       </c>
       <c r="F35" t="n">
-        <v>790.8912173</v>
+        <v>28033.84266</v>
       </c>
       <c r="G35" t="n">
-        <v>892.5257391</v>
+        <v>31879.98125</v>
       </c>
       <c r="H35" t="n">
-        <v>914.5496074</v>
+        <v>35899.97524</v>
       </c>
       <c r="I35" t="n">
-        <v>964.5995681</v>
+        <v>40220.43871</v>
       </c>
       <c r="J35" t="n">
-        <v>1069.856935</v>
+        <v>44393.18889</v>
       </c>
       <c r="K35" t="n">
-        <v>1190.213089</v>
+        <v>46321.67825</v>
       </c>
       <c r="L35" t="n">
-        <v>1163.012663</v>
+        <v>40739.16789</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.368992</v>
+        <v>47345.59704</v>
       </c>
       <c r="N35" t="n">
-        <v>1256.710574</v>
+        <v>51830.39929</v>
       </c>
       <c r="O35" t="n">
-        <v>1219.931075</v>
+        <v>52367.60262</v>
       </c>
       <c r="P35" t="n">
-        <v>1328.640205</v>
+        <v>52050.2923</v>
       </c>
     </row>
     <row r="36">
@@ -44614,46 +44614,46 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>24017.13374</v>
+        <v>1218.796031</v>
       </c>
       <c r="D36" t="n">
-        <v>23582.8569</v>
+        <v>1248.911424</v>
       </c>
       <c r="E36" t="n">
-        <v>24009.94835</v>
+        <v>1352.473771</v>
       </c>
       <c r="F36" t="n">
-        <v>28033.84266</v>
+        <v>1743.191153</v>
       </c>
       <c r="G36" t="n">
-        <v>31879.98125</v>
+        <v>1951.780821</v>
       </c>
       <c r="H36" t="n">
-        <v>35899.97524</v>
+        <v>2030.658982</v>
       </c>
       <c r="I36" t="n">
-        <v>40220.43871</v>
+        <v>2298.814821</v>
       </c>
       <c r="J36" t="n">
-        <v>44393.18889</v>
+        <v>3129.818791</v>
       </c>
       <c r="K36" t="n">
-        <v>46321.67825</v>
+        <v>3692.002674</v>
       </c>
       <c r="L36" t="n">
-        <v>40739.16789</v>
+        <v>3524.330353</v>
       </c>
       <c r="M36" t="n">
-        <v>47345.59704</v>
+        <v>3413.263371</v>
       </c>
       <c r="N36" t="n">
-        <v>51830.39929</v>
+        <v>3801.449765</v>
       </c>
       <c r="O36" t="n">
-        <v>52367.60262</v>
+        <v>3554.411134</v>
       </c>
       <c r="P36" t="n">
-        <v>52050.2923</v>
+        <v>3767.115364</v>
       </c>
     </row>
     <row r="37">
@@ -44664,46 +44664,46 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>1218.796031</v>
+        <v>251.3526401</v>
       </c>
       <c r="D37" t="n">
-        <v>1248.911424</v>
+        <v>251.571807</v>
       </c>
       <c r="E37" t="n">
-        <v>1352.473771</v>
+        <v>263.1597031</v>
       </c>
       <c r="F37" t="n">
-        <v>1743.191153</v>
+        <v>297.6143874</v>
       </c>
       <c r="G37" t="n">
-        <v>1951.780821</v>
+        <v>326.1973133</v>
       </c>
       <c r="H37" t="n">
-        <v>2030.658982</v>
+        <v>340.9078668</v>
       </c>
       <c r="I37" t="n">
-        <v>2298.814821</v>
+        <v>365.4970834</v>
       </c>
       <c r="J37" t="n">
-        <v>3129.818791</v>
+        <v>413.4814387</v>
       </c>
       <c r="K37" t="n">
-        <v>3692.002674</v>
+        <v>474.389479</v>
       </c>
       <c r="L37" t="n">
-        <v>3524.330353</v>
+        <v>464.5132312</v>
       </c>
       <c r="M37" t="n">
-        <v>3413.263371</v>
+        <v>456.5634086</v>
       </c>
       <c r="N37" t="n">
-        <v>3801.449765</v>
+        <v>494.9260803</v>
       </c>
       <c r="O37" t="n">
-        <v>3554.411134</v>
+        <v>479.4709838</v>
       </c>
       <c r="P37" t="n">
-        <v>3767.115364</v>
+        <v>333.1968806</v>
       </c>
     </row>
     <row r="38">
@@ -44713,48 +44713,20 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>251.3526401</v>
-      </c>
-      <c r="D38" t="n">
-        <v>251.571807</v>
-      </c>
-      <c r="E38" t="n">
-        <v>263.1597031</v>
-      </c>
-      <c r="F38" t="n">
-        <v>297.6143874</v>
-      </c>
-      <c r="G38" t="n">
-        <v>326.1973133</v>
-      </c>
-      <c r="H38" t="n">
-        <v>340.9078668</v>
-      </c>
-      <c r="I38" t="n">
-        <v>365.4970834</v>
-      </c>
-      <c r="J38" t="n">
-        <v>413.4814387</v>
-      </c>
-      <c r="K38" t="n">
-        <v>474.389479</v>
-      </c>
-      <c r="L38" t="n">
-        <v>464.5132312</v>
-      </c>
-      <c r="M38" t="n">
-        <v>456.5634086</v>
-      </c>
-      <c r="N38" t="n">
-        <v>494.9260803</v>
-      </c>
-      <c r="O38" t="n">
-        <v>479.4709838</v>
-      </c>
-      <c r="P38" t="n">
-        <v>333.1968806</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -44763,20 +44735,48 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="C39" t="n">
+        <v>166.8513453</v>
+      </c>
+      <c r="D39" t="n">
+        <v>198.2791131</v>
+      </c>
+      <c r="E39" t="n">
+        <v>221.8337338</v>
+      </c>
+      <c r="F39" t="n">
+        <v>293.9101789</v>
+      </c>
+      <c r="G39" t="n">
+        <v>456.7944313</v>
+      </c>
+      <c r="H39" t="n">
+        <v>663.7096973</v>
+      </c>
+      <c r="I39" t="n">
+        <v>716.638996</v>
+      </c>
+      <c r="J39" t="n">
+        <v>807.7815699</v>
+      </c>
+      <c r="K39" t="n">
+        <v>938.4718288</v>
+      </c>
+      <c r="L39" t="n">
+        <v>813.7560302</v>
+      </c>
+      <c r="M39" t="n">
+        <v>909.2999069</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1006.319771</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1035.257946</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1053.662501</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -44786,46 +44786,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>166.8513453</v>
+        <v>5133.077311</v>
       </c>
       <c r="D40" t="n">
-        <v>198.2791131</v>
+        <v>4625.336377</v>
       </c>
       <c r="E40" t="n">
-        <v>221.8337338</v>
+        <v>4487.150018</v>
       </c>
       <c r="F40" t="n">
-        <v>293.9101789</v>
+        <v>4866.33225</v>
       </c>
       <c r="G40" t="n">
-        <v>456.7944313</v>
+        <v>6246.814357</v>
       </c>
       <c r="H40" t="n">
-        <v>663.7096973</v>
+        <v>7589.78486</v>
       </c>
       <c r="I40" t="n">
-        <v>716.638996</v>
+        <v>9391.361038</v>
       </c>
       <c r="J40" t="n">
-        <v>807.7815699</v>
+        <v>10378.61425</v>
       </c>
       <c r="K40" t="n">
-        <v>938.4718288</v>
+        <v>10694.43481</v>
       </c>
       <c r="L40" t="n">
-        <v>813.7560302</v>
+        <v>10122.57199</v>
       </c>
       <c r="M40" t="n">
-        <v>909.2999069</v>
+        <v>12710.80698</v>
       </c>
       <c r="N40" t="n">
-        <v>1006.319771</v>
+        <v>14501.58821</v>
       </c>
       <c r="O40" t="n">
-        <v>1035.257946</v>
+        <v>15230.62313</v>
       </c>
       <c r="P40" t="n">
-        <v>1053.662501</v>
+        <v>15721.03238</v>
       </c>
     </row>
     <row r="41">
@@ -44836,46 +44836,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>5133.077311</v>
+        <v>950.3858963</v>
       </c>
       <c r="D41" t="n">
-        <v>4625.336377</v>
+        <v>1037.858238</v>
       </c>
       <c r="E41" t="n">
-        <v>4487.150018</v>
+        <v>1132.458607</v>
       </c>
       <c r="F41" t="n">
-        <v>4866.33225</v>
+        <v>1272.896616</v>
       </c>
       <c r="G41" t="n">
-        <v>6246.814357</v>
+        <v>1489.111355</v>
       </c>
       <c r="H41" t="n">
-        <v>7589.78486</v>
+        <v>1733.501059</v>
       </c>
       <c r="I41" t="n">
-        <v>9391.361038</v>
+        <v>2067.092798</v>
       </c>
       <c r="J41" t="n">
-        <v>10378.61425</v>
+        <v>2648.182505</v>
       </c>
       <c r="K41" t="n">
-        <v>10694.43481</v>
+        <v>3412.209217</v>
       </c>
       <c r="L41" t="n">
-        <v>10122.57199</v>
+        <v>3748.328651</v>
       </c>
       <c r="M41" t="n">
-        <v>12710.80698</v>
+        <v>4432.965415</v>
       </c>
       <c r="N41" t="n">
-        <v>14501.58821</v>
+        <v>5445.90181</v>
       </c>
       <c r="O41" t="n">
-        <v>15230.62313</v>
+        <v>6093.159448</v>
       </c>
       <c r="P41" t="n">
-        <v>15721.03238</v>
+        <v>6807.231578</v>
       </c>
     </row>
     <row r="42">
@@ -44886,46 +44886,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>950.3858963</v>
+        <v>2503.549492</v>
       </c>
       <c r="D42" t="n">
-        <v>1037.858238</v>
+        <v>2421.272646</v>
       </c>
       <c r="E42" t="n">
-        <v>1132.458607</v>
+        <v>2376.083803</v>
       </c>
       <c r="F42" t="n">
-        <v>1272.896616</v>
+        <v>2261.283608</v>
       </c>
       <c r="G42" t="n">
-        <v>1489.111355</v>
+        <v>2751.153056</v>
       </c>
       <c r="H42" t="n">
-        <v>1733.501059</v>
+        <v>3404.036483</v>
       </c>
       <c r="I42" t="n">
-        <v>2067.092798</v>
+        <v>3717.949508</v>
       </c>
       <c r="J42" t="n">
-        <v>2648.182505</v>
+        <v>4674.326419</v>
       </c>
       <c r="K42" t="n">
-        <v>3412.209217</v>
+        <v>5403.844707</v>
       </c>
       <c r="L42" t="n">
-        <v>3748.328651</v>
+        <v>5108.884632</v>
       </c>
       <c r="M42" t="n">
-        <v>4432.965415</v>
+        <v>6179.378797</v>
       </c>
       <c r="N42" t="n">
-        <v>5445.90181</v>
+        <v>7115.730582</v>
       </c>
       <c r="O42" t="n">
-        <v>6093.159448</v>
+        <v>7756.09358</v>
       </c>
       <c r="P42" t="n">
-        <v>6807.231578</v>
+        <v>7822.620224</v>
       </c>
     </row>
     <row r="43">
@@ -44936,46 +44936,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>2503.549492</v>
+        <v>382.1603212</v>
       </c>
       <c r="D43" t="n">
-        <v>2421.272646</v>
+        <v>406.0951561</v>
       </c>
       <c r="E43" t="n">
-        <v>2376.083803</v>
+        <v>443.7504421</v>
       </c>
       <c r="F43" t="n">
-        <v>2261.283608</v>
+        <v>556.6473455</v>
       </c>
       <c r="G43" t="n">
-        <v>2751.153056</v>
+        <v>628.8862807</v>
       </c>
       <c r="H43" t="n">
-        <v>3404.036483</v>
+        <v>633.1812715</v>
       </c>
       <c r="I43" t="n">
-        <v>3717.949508</v>
+        <v>658.7100831</v>
       </c>
       <c r="J43" t="n">
-        <v>4674.326419</v>
+        <v>730.879264</v>
       </c>
       <c r="K43" t="n">
-        <v>5403.844707</v>
+        <v>796.988807</v>
       </c>
       <c r="L43" t="n">
-        <v>5108.884632</v>
+        <v>772.8425217</v>
       </c>
       <c r="M43" t="n">
-        <v>6179.378797</v>
+        <v>756.8106118</v>
       </c>
       <c r="N43" t="n">
-        <v>7115.730582</v>
+        <v>808.3572439</v>
       </c>
       <c r="O43" t="n">
-        <v>7756.09358</v>
+        <v>767.2114252</v>
       </c>
       <c r="P43" t="n">
-        <v>7822.620224</v>
+        <v>814.9571489</v>
       </c>
     </row>
     <row r="44">
@@ -44986,46 +44986,46 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>382.1603212</v>
+        <v>1029.974585</v>
       </c>
       <c r="D44" t="n">
-        <v>406.0951561</v>
+        <v>871.6709433</v>
       </c>
       <c r="E44" t="n">
-        <v>443.7504421</v>
+        <v>919.6870143</v>
       </c>
       <c r="F44" t="n">
-        <v>556.6473455</v>
+        <v>1039.379799</v>
       </c>
       <c r="G44" t="n">
-        <v>628.8862807</v>
+        <v>1347.870907</v>
       </c>
       <c r="H44" t="n">
-        <v>633.1812715</v>
+        <v>1718.100816</v>
       </c>
       <c r="I44" t="n">
-        <v>658.7100831</v>
+        <v>2120.097846</v>
       </c>
       <c r="J44" t="n">
-        <v>730.879264</v>
+        <v>2233.308252</v>
       </c>
       <c r="K44" t="n">
-        <v>796.988807</v>
+        <v>3059.226535</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8425217</v>
+        <v>2401.298155</v>
       </c>
       <c r="M44" t="n">
-        <v>756.8106118</v>
+        <v>2920.406708</v>
       </c>
       <c r="N44" t="n">
-        <v>808.3572439</v>
+        <v>3414.054709</v>
       </c>
       <c r="O44" t="n">
-        <v>767.2114252</v>
+        <v>3153.739525</v>
       </c>
       <c r="P44" t="n">
-        <v>814.9571489</v>
+        <v>3167.045322</v>
       </c>
     </row>
     <row r="45">
@@ -45036,46 +45036,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>1029.974585</v>
+        <v>4058.044534</v>
       </c>
       <c r="D45" t="n">
-        <v>871.6709433</v>
+        <v>4087.118971</v>
       </c>
       <c r="E45" t="n">
-        <v>919.6870143</v>
+        <v>4114.566905</v>
       </c>
       <c r="F45" t="n">
-        <v>1039.379799</v>
+        <v>4199.694812</v>
       </c>
       <c r="G45" t="n">
-        <v>1347.870907</v>
+        <v>4379.391063</v>
       </c>
       <c r="H45" t="n">
-        <v>1718.100816</v>
+        <v>4621.364127</v>
       </c>
       <c r="I45" t="n">
-        <v>2120.097846</v>
+        <v>5128.400753</v>
       </c>
       <c r="J45" t="n">
-        <v>2233.308252</v>
+        <v>5897.527844</v>
       </c>
       <c r="K45" t="n">
-        <v>3059.226535</v>
+        <v>6581.308114</v>
       </c>
       <c r="L45" t="n">
-        <v>2401.298155</v>
+        <v>6385.56513</v>
       </c>
       <c r="M45" t="n">
-        <v>2920.406708</v>
+        <v>7773.185487</v>
       </c>
       <c r="N45" t="n">
-        <v>3414.054709</v>
+        <v>8704.111887</v>
       </c>
       <c r="O45" t="n">
-        <v>3153.739525</v>
+        <v>9442.66454</v>
       </c>
       <c r="P45" t="n">
-        <v>3167.045322</v>
+        <v>10184.60567</v>
       </c>
     </row>
     <row r="46">
@@ -45086,46 +45086,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>4058.044534</v>
+        <v>645.7656817</v>
       </c>
       <c r="D46" t="n">
-        <v>4087.118971</v>
+        <v>642.2152213</v>
       </c>
       <c r="E46" t="n">
-        <v>4114.566905</v>
+        <v>688.8559652</v>
       </c>
       <c r="F46" t="n">
-        <v>4199.694812</v>
+        <v>812.3976351</v>
       </c>
       <c r="G46" t="n">
-        <v>4379.391063</v>
+        <v>902.9864166</v>
       </c>
       <c r="H46" t="n">
-        <v>4621.364127</v>
+        <v>982.2314265</v>
       </c>
       <c r="I46" t="n">
-        <v>5128.400753</v>
+        <v>1007.839837</v>
       </c>
       <c r="J46" t="n">
-        <v>5897.527844</v>
+        <v>1133.409489</v>
       </c>
       <c r="K46" t="n">
-        <v>6581.308114</v>
+        <v>1326.661946</v>
       </c>
       <c r="L46" t="n">
-        <v>6385.56513</v>
+        <v>1305.147464</v>
       </c>
       <c r="M46" t="n">
-        <v>7773.185487</v>
+        <v>1311.326565</v>
       </c>
       <c r="N46" t="n">
-        <v>8704.111887</v>
+        <v>1309.008626</v>
       </c>
       <c r="O46" t="n">
-        <v>9442.66454</v>
+        <v>1365.873574</v>
       </c>
       <c r="P46" t="n">
-        <v>10184.60567</v>
+        <v>1528.937539</v>
       </c>
     </row>
     <row r="47">
@@ -52500,46 +52500,46 @@
         <v>405</v>
       </c>
       <c r="C202" t="n">
-        <v>635.7089635</v>
+        <v>26319.13455</v>
       </c>
       <c r="D202" t="n">
-        <v>780.7380243</v>
+        <v>25879.71013</v>
       </c>
       <c r="E202" t="n">
-        <v>879.4750486</v>
+        <v>28128.45758</v>
       </c>
       <c r="F202" t="n">
-        <v>1048.522488</v>
+        <v>32524.37228</v>
       </c>
       <c r="G202" t="n">
-        <v>1367.352433</v>
+        <v>38341.06225</v>
       </c>
       <c r="H202" t="n">
-        <v>1828.717626</v>
+        <v>39899.86558</v>
       </c>
       <c r="I202" t="n">
-        <v>2308.296509</v>
+        <v>42401.55854</v>
       </c>
       <c r="J202" t="n">
-        <v>3074.650581</v>
+        <v>48269.42453</v>
       </c>
       <c r="K202" t="n">
-        <v>3891.201992</v>
+        <v>45140.52172</v>
       </c>
       <c r="L202" t="n">
-        <v>2540.534555</v>
+        <v>37092.78028</v>
       </c>
       <c r="M202" t="n">
-        <v>2964.855561</v>
+        <v>38396.36085</v>
       </c>
       <c r="N202" t="n">
-        <v>3566.263584</v>
+        <v>40942.84382</v>
       </c>
       <c r="O202" t="n">
-        <v>3882.149351</v>
+        <v>40976.08681</v>
       </c>
       <c r="P202" t="n">
-        <v>3890.999261</v>
+        <v>41811.5738</v>
       </c>
     </row>
     <row r="203">
@@ -52550,46 +52550,46 @@
         <v>407</v>
       </c>
       <c r="C203" t="n">
-        <v>26319.13455</v>
+        <v>635.7089635</v>
       </c>
       <c r="D203" t="n">
-        <v>25879.71013</v>
+        <v>780.7380243</v>
       </c>
       <c r="E203" t="n">
-        <v>28128.45758</v>
+        <v>879.4750486</v>
       </c>
       <c r="F203" t="n">
-        <v>32524.37228</v>
+        <v>1048.522488</v>
       </c>
       <c r="G203" t="n">
-        <v>38341.06225</v>
+        <v>1367.352433</v>
       </c>
       <c r="H203" t="n">
-        <v>39899.86558</v>
+        <v>1828.717626</v>
       </c>
       <c r="I203" t="n">
-        <v>42401.55854</v>
+        <v>2308.296509</v>
       </c>
       <c r="J203" t="n">
-        <v>48269.42453</v>
+        <v>3074.650581</v>
       </c>
       <c r="K203" t="n">
-        <v>45140.52172</v>
+        <v>3891.201992</v>
       </c>
       <c r="L203" t="n">
-        <v>37092.78028</v>
+        <v>2540.534555</v>
       </c>
       <c r="M203" t="n">
-        <v>38396.36085</v>
+        <v>2964.855561</v>
       </c>
       <c r="N203" t="n">
-        <v>40942.84382</v>
+        <v>3566.263584</v>
       </c>
       <c r="O203" t="n">
-        <v>40976.08681</v>
+        <v>3882.149351</v>
       </c>
       <c r="P203" t="n">
-        <v>41811.5738</v>
+        <v>3890.999261</v>
       </c>
     </row>
     <row r="204">
